--- a/biology/Botanique/Angraecum/Angraecum.xlsx
+++ b/biology/Botanique/Angraecum/Angraecum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Angraecum comprend plus de 200 espèces d'orchidées. Certaines d'entre elles sont spectaculaires. Ce genre est inclus dans la tribu des Sarcanthinae. Ces espèces ne possèdent pas de pseudobulbes mais ont une tige à croissance monopodiale. Ce sont des orchidées souvent de grande taille, épiphytes, adaptées aux conditions des forêts sèches d'Afrique tropicale ou de Madagascar. Seules quelques espèces sont originaires d'Asie.
 Le naturaliste français Bory de Saint-Vincent est le premier à décrire une espèce du genre, l'Angraecum eburneum, en 1805 d'après un spécimen découvert sur l'île de La Réunion. Le botaniste Du Petit-Thouars va à son tour découvrir une vingtaine d'espèces nouvelles dans les deux décennies suivantes.
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angraecum est la forme latinisée d'Anggrek, mot qui signifie "orchidée" dans différentes langues austronésiennes dont l'indonésien et le javanais.
 </t>
@@ -545,7 +559,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calycis laciniae exteriores subpatentes aut erectiusculae, aequales duabus interioribus angustioribus; labellum sessile, cum antica gynostemii basi articulatum, saepius concavum, integrum, apice apiculatum aut trilobum, basi in calcar forma longitudineque varium desinens. Gynostemium saepius breve vel longiusculum, apice et antice aliquando bicorne; anthera terminalis operculiformis decidua. Pollinia duo ovata, solida.
 Herbae parasiticae; quaedam basi in bulbo dilatatae. Foli radicalia aut caulinia alterna, supra basin articulata et transverse secedentia. Flores resupinati, inflorescentia varii. Ovarium contortum.
@@ -578,7 +594,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Section Acaulia Garay, 1973.
 Angraecum brachyrhopalon Schltr., 1925 - nord de Madagascar.
@@ -630,7 +648,7 @@
 Angraecum arachnites Schltr., 1925 - centre de Madagascar.
 Angraecum birrimense Rolfe, 1914 - Afrique de l'ouest tropicale.
 Angraecum conchiferum   Lindl., 1837 - du Kenya à l'Afrique du Sud.
-Angraecum conchoglossum Schltr., 1918 - Madagascar et Réunion[1].
+Angraecum conchoglossum Schltr., 1918 - Madagascar et Réunion.
 Angraecum danguyanum H. Perrier, 1938 - nord-est de Madagascar.
 Angraecum eichlerianum Kraenzl. 1882 - du Nigeria à l'Angola.
 Angraecum eichlerianum var. curvicalcaratum - Cameroun
@@ -859,7 +877,9 @@
           <t>Liste des hybrides horticoles enregistrés par la Royal Horticultural Society</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hybrides interspécifiques
 Angraecum Alabaster - A.eburneum × A.veitchii - Kirsch, 1960.
